--- a/biology/Zoologie/Atelopus_tamaense/Atelopus_tamaense.xlsx
+++ b/biology/Zoologie/Atelopus_tamaense/Atelopus_tamaense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus tamaense est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus tamaense est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre à la frontière entre l'État d'Apure au Venezuela et le département de Norte de Santander en Colombie entre 2 950 et 3 200 m d'altitude sur le paramo de Tamá dans la cordillère Orientale[1],[2].
-Sa présence dans l'État de Táchira est incertaine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre à la frontière entre l'État d'Apure au Venezuela et le département de Norte de Santander en Colombie entre 2 950 et 3 200 m d'altitude sur le paramo de Tamá dans la cordillère Orientale,.
+Sa présence dans l'État de Táchira est incertaine.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de tama et du suffixe latin -ense, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, le paramo de Tamá.
 </t>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Marca, García-Pérez &amp; Renjifo, 1990 "1989" : Una nueva especie de Atelopus (Amphibia: Anura: Bufonidae) del Paramo de Tama, Estado Apure, Venezuela. Caldasia, vol. 16, no 76, p. 97-104 (texte intégral).</t>
         </is>
